--- a/database.xlsx
+++ b/database.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD684D4-4B25-443B-B1F3-8E7BA592B719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C16DD-056D-44BC-B7D8-A0AECD05F0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="386">
   <si>
     <t>category</t>
   </si>
@@ -511,18 +513,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=2rkOEQmaSq0</t>
-  </si>
-  <si>
-    <t>SAMALAMIG SAMALAMIG</t>
-  </si>
-  <si>
-    <t>samalamig</t>
-  </si>
-  <si>
-    <t>http://i3.ytimg.com/vi/2rkOEQmaSq0/hqdefault.jpg</t>
-  </si>
-  <si>
     <t>thumbnail</t>
   </si>
   <si>
@@ -647,9 +637,6 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?export=view&amp;id=1ININssoy29lkjXJnBU8gcYFel-fF2c53</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/r4q7k5YNiUY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
     <t>&lt;img class="img-fluid img-centered" src="" alt=""&gt;</t>
@@ -788,13 +775,436 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_L9Mg1hza5MyJEpeGe5EjJiGB59NrwTA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/r4q7k5YNiUY/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLApo79tkC6FLWW2gksQzhKhs75b8A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r4q7k5YNiUY</t>
+  </si>
+  <si>
+    <t>teaser</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/HuS2GbSbBJQ/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLDaJdfUi2utVHwK9zQg4AYpgmfThQ</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_6mIxkZz_8Y/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLBxCsNWVF5dpED38E7zDB9nujr11A</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/rsi3vvFpIvU/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLDFClwfwKZkBYbxPjWuUzSOEVcwuA</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/6PPaiDMWE08/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLA8sU7jLirqVKwVaEWLt_2xzbjHMw</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/MgoVV5HZ-lk/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLAQ1lp8EK3xYJYmlRkWRIEfwU_34g</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/H4RRsS_rAco/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLCER0Kzsq8mTWPXOO3d6ok8HHj9Yg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/uKRD33RML3E/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLDjUoz52Q8JkJt_AaLTvyxK0rdHiw</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3TVOkxGSKtw/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLA8LOQD_oDRZXW2YjiFfY2AkiokLg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/w5hrqgywnl4/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLCq-QvXroCBpqAwFJYvhTx2erbOWg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/z4v8TDIq4yE/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLBbLA60HGSqd2UfybLg6cWyWz1AgA</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/nCri8x8ASf0/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLAaao_hitWd-mG9A4JVU58afShGxA</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/blNuafElQyQ/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLAtEfj7m73sOhkpEiYtvqvTlEkI-A</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/YW1OVXfpkO8/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLDZ0GwpOtKzsyfAJCwG3PTxgFV2yg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YW1OVXfpkO8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=blNuafElQyQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nCri8x8ASf0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z4v8TDIq4yE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w5hrqgywnl4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3TVOkxGSKtw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uKRD33RML3E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H4RRsS_rAco</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rsi3vvFpIvU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_6mIxkZz_8Y</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA Virtual Tour Teaser</t>
+  </si>
+  <si>
+    <t>About DOST-MIMAROPA</t>
+  </si>
+  <si>
+    <t>Small Enterprise Technology Upgrading Program</t>
+  </si>
+  <si>
+    <t>Science and Technology Academic and Research-Based Openly Operated Kiosk Stations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HuS2GbSbBJQ</t>
+  </si>
+  <si>
+    <t>vtt</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA PQA</t>
+  </si>
+  <si>
+    <t>pqa</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Regional Research, Development, and Innovation Committee</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6PPaiDMWE08&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Rejano's Bakery</t>
+  </si>
+  <si>
+    <t>rejano</t>
+  </si>
+  <si>
+    <t>Prof. Raj Intro</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA Virtual Exhibit</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>lns</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>2020-nstw</t>
+  </si>
+  <si>
+    <t>2020 Virtual NSTW Teaser</t>
+  </si>
+  <si>
+    <t>Women's Month Teaser</t>
+  </si>
+  <si>
+    <t>Lakas ng Siyensya Teaser</t>
+  </si>
+  <si>
+    <t>pqa-l2</t>
+  </si>
+  <si>
+    <t>PQA Sharing</t>
+  </si>
+  <si>
+    <t>DLLO RD Presentation</t>
+  </si>
+  <si>
+    <t>dllo-ppt</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa, CEST shore up Romblon areas</t>
+  </si>
+  <si>
+    <t>https://businessmirror.com.ph/2021/01/17/dost-mimaropa-cest-shore-up-romblon-areas/</t>
+  </si>
+  <si>
+    <t>https://businessmirror.com.ph/2021/06/27/coral-restoration-in-marinduque-begins/</t>
+  </si>
+  <si>
+    <t>Coral restoration in Marinduque begins</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/en-ph/news/other/dost-to-conduct-luzon-wide-virtual-scientific-meeting/ar-BB1g4GEr</t>
+  </si>
+  <si>
+    <t>https://www.manilatimes.net/2021/05/17/public-square/dost-mimaropa-regional-invention-contest-extended-to-june-27/873451/</t>
+  </si>
+  <si>
+    <t>https://www.manilatimes.net/2021/06/20/public-square/dost-program-extends-help-to-shrimp-farmers/1803931</t>
+  </si>
+  <si>
+    <t>https://www.manilatimes.net/2021/07/16/public-square/coral-restoration-in-marinduque-improves-productivity-of-marine-resources/1807191</t>
+  </si>
+  <si>
+    <t>DoST to conduct Luzon-wide virtual scientific meeting</t>
+  </si>
+  <si>
+    <t>DoST-Mimaropa regional invention contest extended to June 27</t>
+  </si>
+  <si>
+    <t>DoST program extends help to shrimp farmers</t>
+  </si>
+  <si>
+    <t>Coral restoration in Marinduque improves productivity of marine resources</t>
+  </si>
+  <si>
+    <t>https://newsbytes.ph/2021/02/11/solar-powered-water-filtration-system-comes-to-remote-palawan-island/</t>
+  </si>
+  <si>
+    <t>http://www.diaryongtagalog.net/agham/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/</t>
+  </si>
+  <si>
+    <t>http://thephilippinepost.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions//</t>
+  </si>
+  <si>
+    <t>http://theluzondaily.com/coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources/</t>
+  </si>
+  <si>
+    <t>http://themindanaolife.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/</t>
+  </si>
+  <si>
+    <t>http://thevisayasjournal.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/</t>
+  </si>
+  <si>
+    <t>https://www.romblonnews.net/index.php/regional/6130-solar-powered-water-pump-system-provides-accessible-water-for-sibuyao</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/features/6150-dost-mimaropa-promotes-community-empowerment-in-yook-marinduque</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/regional/6331-dost-mimaropa-naglunsad-ng-virtual-tour?fbclid=IwAR2y8xXN_58Bh8d_FKL3-5XLM_J_Ev4rEx8fTIlXvOXUgsESyggb-2OU9nQ</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/regional/6379-dost-mimaropa-supports-call-to-end-gender-based-violence</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/regional/6362-dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/local/24-concepcion/6413-dost-shores-up-water-security-livelihood-nutrition-and-environment-protection-in-concepcion</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/features/6463-dost-turns-the-tide-in-dumaran-island</t>
+  </si>
+  <si>
+    <t>https://romblonnews.net/index.php/regional/6482-programang-tutulong-sa-mga-negosyanteng-ofw-inilunsad-ng-dost-mimaropa</t>
+  </si>
+  <si>
+    <t>https://palawan-news.com/dost-mimaropa-promotes-community-empowerment-in-yook-marinduque/</t>
+  </si>
+  <si>
+    <t>https://palawan-news.com/dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region/</t>
+  </si>
+  <si>
+    <t>https://palawan-news.com/dost-shores-up-water-security-in-concepcion-romblon/</t>
+  </si>
+  <si>
+    <t>https://palawan-news.com/mission-success-dost-turns-the-tide-in-dumaran-island/</t>
+  </si>
+  <si>
+    <t>https://palawan-news.com/dost-mimaropa-assistance-program-inilunsad-para-sa-mga-ofw/</t>
+  </si>
+  <si>
+    <t>https://marinduquenews.com/2020/09/30/solar-powered-water-pump-system-provides-accessible-water-in-sibuyao/</t>
+  </si>
+  <si>
+    <t>https://marinduquenews.com/2020/09/30/dost-mimaropa-promotes-community-empowerment-in-buenavista/</t>
+  </si>
+  <si>
+    <t>https://palawandailynews.com/provincial-news/dost-hold-technology-forums-research-caravans/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://marinduquenews.com/2021/01/22/dost-shores-up-water-security-in-romblon/ </t>
+  </si>
+  <si>
+    <t>https://marinduquenews.com/2021/03/22/dost-mimaropa-may-alok-na-programa-sa-mga-ofw/</t>
+  </si>
+  <si>
+    <t>https://www.dost.gov.ph/knowledge-resources/news/72-2021-news/2185-smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-s-t-solutions.html</t>
+  </si>
+  <si>
+    <t>https://stii.dost.gov.ph/1122-coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1062616.amp</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1063994</t>
+  </si>
+  <si>
+    <t>https://pia4b.wordpress.com/2021/02/13/mission-success-dost-turns-the-tide-in-dumaran/; https://pia.gov.ph/features/articles/1067474</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1067822.amp ; https://pia.gov.ph/news/articles/1067769</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1069064</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/features/articles/1071591</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/press-releases/releases/1054405?fbclid=IwAR0FvFpAsCUmQy8LIjjANgKvWuv1q3rgucxK17Slg3EZfryWhHVYhBqG96E</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1073658</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1074971</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1074799</t>
+  </si>
+  <si>
+    <t>https://pia4b.wordpress.com/2021/05/23/dost-mimaropa-bags-the-philippine-quality-award-for-proficiency-in-quality-management/</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/news/articles/1077055</t>
+  </si>
+  <si>
+    <t>https://pia.gov.ph/press-releases/2021/07/30/dost-mimaropa-director-wins-bcyf-innovation-award-for-improving-regions-water-security</t>
+  </si>
+  <si>
+    <t>Solar-powered water filtration system comes to remote Palawan island</t>
+  </si>
+  <si>
+    <t>Smart aquaculture in MIMAROPA rises: Fostering food security through S&amp;T solutions</t>
+  </si>
+  <si>
+    <t>Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions</t>
+  </si>
+  <si>
+    <t>Coral Restoration In Marinduque Seen To Improve Productivity Of Marine Resources</t>
+  </si>
+  <si>
+    <t>Solar-powered Water Pump System provides accessible water for Sibuyao</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa promotes Community Empowerment in Yook, Marinduque</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa, naglunsad ng Virtual Tour</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa supports call to end Gender-Based Violence</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa promotes basic research, looks at local issues in the region</t>
+  </si>
+  <si>
+    <t>DOST Shores up water security, livelihood, nutrition, and environment protection in Concepcion</t>
+  </si>
+  <si>
+    <t>DOST Turns the Tide in Dumaran Island</t>
+  </si>
+  <si>
+    <t>Programang tutulong sa mga negosyanteng OFW, inilunsad ng DOST-Mimaropa</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA promotes community empowerment in Yook, Marinduque</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA promotes basic research, looks at local issues in the region</t>
+  </si>
+  <si>
+    <t>DOST shores up water security in Concepcion, Romblon</t>
+  </si>
+  <si>
+    <t>MISSION SUCCESS: DOST turns the tide in Dumaran Island</t>
+  </si>
+  <si>
+    <t>DOST-MIMAROPA assistance program, inilunsad para sa mga OFW</t>
+  </si>
+  <si>
+    <t>Solar-powered water pump system provides accessible water in Sibuyao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOST-Mimaropa promotes community empowerment in Buenavista </t>
+  </si>
+  <si>
+    <t>DOST holds technology forums, research caravans</t>
+  </si>
+  <si>
+    <t>DOST shores up water security in Romblon</t>
+  </si>
+  <si>
+    <t>DOST-Mimaropa, may alok na programa sa mga OFW</t>
+  </si>
+  <si>
+    <t>SMART AQUACULTURE IN MIMAROPA RISES: FOSTERING FOOD SECURITY THROUGH S&amp;T SOLUTIONS</t>
+  </si>
+  <si>
+    <t>CORAL RESTORATION IN MARINDUQUE SEEN TO IMPROVE PRODUCTIVITY OF MARINE RESOURCES</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Safe water for Palawan island assured</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XrOfIDY-MY6CZ6yWeg2VYgMWHY6UedF6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>DoST-MIMAROPA regional invention contest extended to June 27</t>
+  </si>
+  <si>
+    <t>MinSU leads in calamansi research</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v49JP62CN1vCMNpk-kgmR1cz2oUxUNEn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Coral restoration sinimulan sa Mimaropa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kH5rG8ya-CWOsKq4JdVi64uWa0pq_2O5/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +1228,39 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -855,10 +1298,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -887,15 +1331,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1174,16 +1652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
@@ -1192,7 +1670,8 @@
     <col min="8" max="8" width="25.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" style="5" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="50.7109375" style="6" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="4"/>
@@ -1229,8 +1708,8 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>162</v>
+      <c r="K1" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>157</v>
@@ -1239,15 +1718,15 @@
         <v>3</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1264,21 +1743,21 @@
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="K2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1290,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -1298,19 +1777,19 @@
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>210</v>
+      <c r="K3" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1319,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>40</v>
@@ -1327,19 +1806,19 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="K4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1351,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>17</v>
@@ -1359,15 +1838,15 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>247</v>
+      <c r="K5" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="22">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1385,15 +1864,15 @@
       <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>245</v>
+      <c r="K6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="22">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1411,15 +1890,15 @@
       <c r="I7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="K7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1437,15 +1916,15 @@
       <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="K8" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1463,15 +1942,15 @@
       <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="K9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1492,15 +1971,15 @@
       <c r="I10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="K10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1518,15 +1997,15 @@
       <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="K11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1544,15 +2023,15 @@
       <c r="I12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="K12" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1573,15 +2052,15 @@
       <c r="I13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="K13" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1599,15 +2078,15 @@
       <c r="I14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>244</v>
+      <c r="K14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="22">
         <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1625,15 +2104,15 @@
       <c r="I15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>213</v>
+      <c r="K15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="22">
         <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1651,15 +2130,15 @@
       <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>212</v>
+      <c r="K16" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="22">
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1674,15 +2153,15 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>248</v>
+      <c r="K17" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="22">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1700,22 +2179,22 @@
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="K18" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>36</v>
@@ -1726,22 +2205,22 @@
       <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="K19" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>36</v>
@@ -1752,22 +2231,22 @@
       <c r="I20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="K20" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>36</v>
@@ -1781,22 +2260,22 @@
       <c r="J21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="K21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>36</v>
@@ -1810,22 +2289,22 @@
       <c r="J22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="K22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>36</v>
@@ -1836,22 +2315,22 @@
       <c r="I23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="K23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>36</v>
@@ -1865,22 +2344,22 @@
       <c r="I24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="K24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>36</v>
@@ -1891,15 +2370,15 @@
       <c r="I25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>237</v>
+      <c r="K25" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="22">
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1917,15 +2396,15 @@
       <c r="I26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>230</v>
+      <c r="K26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="22">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1943,15 +2422,15 @@
       <c r="I27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="K27" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1972,15 +2451,15 @@
       <c r="I28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="K28" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1998,15 +2477,15 @@
       <c r="I29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="K29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2024,15 +2503,15 @@
       <c r="I30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>228</v>
+      <c r="K30" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="22">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2050,15 +2529,15 @@
       <c r="I31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>221</v>
+      <c r="K31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="22">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2076,15 +2555,15 @@
       <c r="I32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>222</v>
+      <c r="K32" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="22">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2102,15 +2581,15 @@
       <c r="I33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>223</v>
+      <c r="K33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="22">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2128,15 +2607,15 @@
       <c r="I34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>224</v>
+      <c r="K34" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="22">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2154,15 +2633,15 @@
       <c r="I35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>225</v>
+      <c r="K35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="22">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2180,15 +2659,15 @@
       <c r="I36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>215</v>
+      <c r="K36" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="22">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2206,15 +2685,15 @@
       <c r="I37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>214</v>
+      <c r="K37" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="22">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2232,15 +2711,15 @@
       <c r="I38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>216</v>
+      <c r="K38" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="22">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2258,15 +2737,15 @@
       <c r="I39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>217</v>
+      <c r="K39" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="22">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2284,15 +2763,15 @@
       <c r="I40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>218</v>
+      <c r="K40" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="22">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2310,15 +2789,15 @@
       <c r="I41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>219</v>
+      <c r="K41" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="22">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2336,34 +2815,377 @@
       <c r="I42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K42" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="E43" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="O43" t="s">
-        <v>204</v>
+        <v>276</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2372,8 +3194,36 @@
     <sortCondition ref="E2:E42"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K44" r:id="rId1" xr:uid="{00179BB4-F4B6-450B-8700-3A633019C347}"/>
+    <hyperlink ref="L44" r:id="rId2" xr:uid="{6B308D80-AE4A-4D76-9058-734C0311A182}"/>
+    <hyperlink ref="K45" r:id="rId3" xr:uid="{442562F3-4693-40CF-8905-3141C74889A9}"/>
+    <hyperlink ref="L45" r:id="rId4" xr:uid="{DDC2839A-218D-4494-87E8-310AD0E7EA16}"/>
+    <hyperlink ref="L46" r:id="rId5" xr:uid="{AD2EB313-7A19-4EA6-A7AE-F61B7ECCD3E3}"/>
+    <hyperlink ref="K46" r:id="rId6" xr:uid="{7EB4FDBE-87A1-4CE8-9854-BE4199352F3B}"/>
+    <hyperlink ref="K47" r:id="rId7" xr:uid="{0026A6D0-089A-4C59-9844-3BDDD23923FF}"/>
+    <hyperlink ref="L47" r:id="rId8" xr:uid="{4E5C00FC-0A8F-462D-AB7B-B842B3A5F450}"/>
+    <hyperlink ref="K48" r:id="rId9" xr:uid="{D3EAE037-C2D9-4928-B263-58F197E66124}"/>
+    <hyperlink ref="L48" r:id="rId10" xr:uid="{0F4BE626-5F5F-4C14-AF4C-4D2BEDDBACBE}"/>
+    <hyperlink ref="K49" r:id="rId11" xr:uid="{20CE7812-64F2-4F9E-A4AD-D818C0EB89DE}"/>
+    <hyperlink ref="L49" r:id="rId12" xr:uid="{7461CCE5-E819-4FEC-963F-3BE751418966}"/>
+    <hyperlink ref="K50" r:id="rId13" xr:uid="{086308C8-9C3C-40E8-AC15-0082A16A31BC}"/>
+    <hyperlink ref="L50" r:id="rId14" xr:uid="{8C80E13B-4EDD-4899-9657-C6AFCDF95BD9}"/>
+    <hyperlink ref="K51" r:id="rId15" xr:uid="{C7AC80E0-A565-4AA1-B64F-5065846628E6}"/>
+    <hyperlink ref="L51" r:id="rId16" xr:uid="{2B7C12F2-AE54-4717-92A8-5A964779F733}"/>
+    <hyperlink ref="K52" r:id="rId17" xr:uid="{82C1D026-D594-4340-91DB-0A543F309F41}"/>
+    <hyperlink ref="L52" r:id="rId18" xr:uid="{8A286EF2-18A8-42BB-9203-A9DE5BB39F40}"/>
+    <hyperlink ref="K53" r:id="rId19" xr:uid="{4CA10A27-1080-4F68-9587-66BBA5CAE63E}"/>
+    <hyperlink ref="L53" r:id="rId20" xr:uid="{A7070418-5CD6-488A-92A3-89F447CE3AD8}"/>
+    <hyperlink ref="L54" r:id="rId21" xr:uid="{36E0B0F2-161D-46F9-9302-3654DCB96EB3}"/>
+    <hyperlink ref="K54" r:id="rId22" xr:uid="{5FE1B1A9-F8A2-41C9-A5A9-374968ADF6D1}"/>
+    <hyperlink ref="K55" r:id="rId23" xr:uid="{0AF3FC0D-75BB-481C-BCE1-AE34E36F02A0}"/>
+    <hyperlink ref="L55" r:id="rId24" xr:uid="{62C8AC82-6D3F-4E0E-804A-D893036A98E4}"/>
+    <hyperlink ref="K56" r:id="rId25" xr:uid="{5DB1C384-72AC-4CAE-AE0F-B77FB17FC932}"/>
+    <hyperlink ref="L56" r:id="rId26" xr:uid="{1EF802B8-2527-4BFF-810B-004E3CE1E292}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -2570,4 +3420,610 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8058E62C-DA12-48F4-83A5-594A8E5362D7}">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;"""},"</f>
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://businessmirror.com.ph/2021/01/17/dost-mimaropa-cest-shore-up-romblon-areas/"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T33" si="0">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;"""},"</f>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://businessmirror.com.ph/2021/06/27/coral-restoration-in-marinduque-begins/"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://www.msn.com/en-ph/news/other/dost-to-conduct-luzon-wide-virtual-scientific-meeting/ar-BB1g4GEr"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST-Mimaropa regional invention contest extended to June 27", url: "https://www.manilatimes.net/2021/05/17/public-square/dost-mimaropa-regional-invention-contest-extended-to-june-27/873451/"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://www.manilatimes.net/2021/06/20/public-square/dost-program-extends-help-to-shrimp-farmers/1803931"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://www.manilatimes.net/2021/07/16/public-square/coral-restoration-in-marinduque-improves-productivity-of-marine-resources/1807191"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered water filtration system comes to remote Palawan island", url: "https://newsbytes.ph/2021/02/11/solar-powered-water-filtration-system-comes-to-remote-palawan-island/"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart aquaculture in MIMAROPA rises: Fostering food security through S&amp;T solutions", url: "http://www.diaryongtagalog.net/agham/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thephilippinepost.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions//"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral Restoration In Marinduque Seen To Improve Productivity Of Marine Resources", url: "http://theluzondaily.com/coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources/"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://themindanaolife.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>315</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thevisayasjournal.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered Water Pump System provides accessible water for Sibuyao", url: "https://www.romblonnews.net/index.php/regional/6130-solar-powered-water-pump-system-provides-accessible-water-for-sibuyao"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes Community Empowerment in Yook, Marinduque", url: "https://romblonnews.net/index.php/features/6150-dost-mimaropa-promotes-community-empowerment-in-yook-marinduque"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>318</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa, naglunsad ng Virtual Tour", url: "https://romblonnews.net/index.php/regional/6331-dost-mimaropa-naglunsad-ng-virtual-tour?fbclid=IwAR2y8xXN_58Bh8d_FKL3-5XLM_J_Ev4rEx8fTIlXvOXUgsESyggb-2OU9nQ"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa supports call to end Gender-Based Violence", url: "https://romblonnews.net/index.php/regional/6379-dost-mimaropa-supports-call-to-end-gender-based-violence"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes basic research, looks at local issues in the region", url: "https://romblonnews.net/index.php/regional/6362-dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST Shores up water security, livelihood, nutrition, and environment protection in Concepcion", url: "https://romblonnews.net/index.php/local/24-concepcion/6413-dost-shores-up-water-security-livelihood-nutrition-and-environment-protection-in-concepcion"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST Turns the Tide in Dumaran Island", url: "https://romblonnews.net/index.php/features/6463-dost-turns-the-tide-in-dumaran-island"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Programang tutulong sa mga negosyanteng OFW, inilunsad ng DOST-Mimaropa", url: "https://romblonnews.net/index.php/regional/6482-programang-tutulong-sa-mga-negosyanteng-ofw-inilunsad-ng-dost-mimaropa"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA promotes community empowerment in Yook, Marinduque", url: "https://palawan-news.com/dost-mimaropa-promotes-community-empowerment-in-yook-marinduque/"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA promotes basic research, looks at local issues in the region", url: "https://palawan-news.com/dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region/"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST shores up water security in Concepcion, Romblon", url: "https://palawan-news.com/dost-shores-up-water-security-in-concepcion-romblon/"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "MISSION SUCCESS: DOST turns the tide in Dumaran Island", url: "https://palawan-news.com/mission-success-dost-turns-the-tide-in-dumaran-island/"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA assistance program, inilunsad para sa mga OFW", url: "https://palawan-news.com/dost-mimaropa-assistance-program-inilunsad-para-sa-mga-ofw/"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered water pump system provides accessible water in Sibuyao", url: "https://marinduquenews.com/2020/09/30/solar-powered-water-pump-system-provides-accessible-water-in-sibuyao/"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes community empowerment in Buenavista ", url: "https://marinduquenews.com/2020/09/30/dost-mimaropa-promotes-community-empowerment-in-buenavista/"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST holds technology forums, research caravans", url: "https://palawandailynews.com/provincial-news/dost-hold-technology-forums-research-caravans/"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
+        <v>332</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST shores up water security in Romblon", url: "https://marinduquenews.com/2021/01/22/dost-shores-up-water-security-in-romblon/ "},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
+        <v>333</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa, may alok na programa sa mga OFW", url: "https://marinduquenews.com/2021/03/22/dost-mimaropa-may-alok-na-programa-sa-mga-ofw/"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "SMART AQUACULTURE IN MIMAROPA RISES: FOSTERING FOOD SECURITY THROUGH S&amp;T SOLUTIONS", url: "https://www.dost.gov.ph/knowledge-resources/news/72-2021-news/2185-smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-s-t-solutions.html"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "CORAL RESTORATION IN MARINDUQUE SEEN TO IMPROVE PRODUCTIVITY OF MARINE RESOURCES", url: "https://stii.dost.gov.ph/1122-coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{598382C0-1520-4285-B446-38998151C486}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DD86822B-B262-4541-88D1-F9D4F073D63F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
+  <dimension ref="A2:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" t="str">
+        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;"""},"</f>
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O10" si="0">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;"""},"</f>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Safe water for Palawan island assured", url: "https://drive.google.com/file/d/1XrOfIDY-MY6CZ6yWeg2VYgMWHY6UedF6/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST-MIMAROPA regional invention contest extended to June 27", url: "https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "MinSU leads in calamansi research", url: "https://drive.google.com/file/d/1v49JP62CN1vCMNpk-kgmR1cz2oUxUNEn/view?usp=sharing"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>385</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral restoration sinimulan sa Mimaropa", url: "https://drive.google.com/file/d/1kH5rG8ya-CWOsKq4JdVi64uWa0pq_2O5/view?usp=sharing"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{39A0F303-FD74-469F-86BD-86E77B88E2EC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{383FAEAD-96A6-4D82-8208-49006BF5FCB6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B7711E9-4D5D-417C-AA29-0076527169DC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E013696A-968E-46D3-8AF0-55586923E666}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C16DD-056D-44BC-B7D8-A0AECD05F0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79883EB8-0D79-489B-A4C1-6CD3A72582B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="392">
   <si>
     <t>category</t>
   </si>
@@ -1198,6 +1198,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1kH5rG8ya-CWOsKq4JdVi64uWa0pq_2O5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FMba5lXIw4mekHcyYe9mArir-AFbdErM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a13flG1yKZbT8k2LKiXR16erlc_qFb2w/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
@@ -3903,118 +3921,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="50.7109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="O2" t="str">
-        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;"""},"</f>
-        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="4" t="str">
+        <f>"https://drive.google.com/uc?export=view&amp;id=" &amp; E2</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(D2,SEARCH("/d/",D2)+3,33)</f>
+        <v>1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;""", thumbnail: """ &amp; C2 &amp;"""},"</f>
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O10" si="0">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;"""},"</f>
-        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C10" si="0">"https://drive.google.com/uc?export=view&amp;id=" &amp; E3</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="1">MID(D3,SEARCH("/d/",D3)+3,33)</f>
+        <v>1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O10" si="2">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;""", thumbnail: """ &amp; C3 &amp;"""},"</f>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="O4" t="str">
+      <c r="C4" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>{title: "Safe water for Palawan island assured", url: "https://drive.google.com/file/d/1XrOfIDY-MY6CZ6yWeg2VYgMWHY6UedF6/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="O5" t="str">
+      <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="O6" t="str">
+      <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="O7" t="str">
+      <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>{title: "DoST-MIMAROPA regional invention contest extended to June 27", url: "https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST-MIMAROPA regional invention contest extended to June 27", url: "https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="O8" t="str">
+      <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="O9" t="str">
+      <c r="C9" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>{title: "MinSU leads in calamansi research", url: "https://drive.google.com/file/d/1v49JP62CN1vCMNpk-kgmR1cz2oUxUNEn/view?usp=sharing"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="O10" t="str">
+      <c r="C10" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>{title: "Coral restoration sinimulan sa Mimaropa", url: "https://drive.google.com/file/d/1kH5rG8ya-CWOsKq4JdVi64uWa0pq_2O5/view?usp=sharing"},</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -4023,6 +4135,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{383FAEAD-96A6-4D82-8208-49006BF5FCB6}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6B7711E9-4D5D-417C-AA29-0076527169DC}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E013696A-968E-46D3-8AF0-55586923E666}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{D77F9015-8AC9-487F-9D4F-DA5C214E4C43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79883EB8-0D79-489B-A4C1-6CD3A72582B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D1006-B648-418F-934E-DCD093F30146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1672,9 +1672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,9 +2841,6 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>42</v>
-      </c>
       <c r="B43" s="3" t="s">
         <v>131</v>
       </c>
@@ -3051,9 +3048,6 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>50</v>
-      </c>
       <c r="B51" s="3" t="s">
         <v>131</v>
       </c>
@@ -3129,9 +3123,6 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>53</v>
-      </c>
       <c r="B54" s="3" t="s">
         <v>131</v>
       </c>
@@ -3921,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D1006-B648-418F-934E-DCD093F30146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E8AEE-EE4A-4D66-AA9A-DC3ACEB3B967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1670,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2580,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>28</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>29</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>30</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>31</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>32</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>33</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>34</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>35</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>36</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>37</v>
       </c>
@@ -2840,31 +2840,36 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:26" ht="300" x14ac:dyDescent="0.25">
+      <c r="O43" s="22">
+        <v>42</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="U43" s="3"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="Z43" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -2917,7 +2922,7 @@
       </c>
       <c r="M45" s="16"/>
     </row>
-    <row r="46" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -3047,30 +3052,36 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:26" ht="285" x14ac:dyDescent="0.25">
+      <c r="O51" s="22">
+        <v>50</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="U51" s="3"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="X51" s="5"/>
+      <c r="Y51" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="Z51" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>51</v>
       </c>
@@ -3096,7 +3107,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>52</v>
       </c>
@@ -3122,30 +3133,36 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:26" ht="300" x14ac:dyDescent="0.25">
+      <c r="O54" s="22">
+        <v>53</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="U54" s="3"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="X54" s="5"/>
+      <c r="Y54" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="Z54" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>54</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -3218,14 +3235,14 @@
     <hyperlink ref="L49" r:id="rId12" xr:uid="{7461CCE5-E819-4FEC-963F-3BE751418966}"/>
     <hyperlink ref="K50" r:id="rId13" xr:uid="{086308C8-9C3C-40E8-AC15-0082A16A31BC}"/>
     <hyperlink ref="L50" r:id="rId14" xr:uid="{8C80E13B-4EDD-4899-9657-C6AFCDF95BD9}"/>
-    <hyperlink ref="K51" r:id="rId15" xr:uid="{C7AC80E0-A565-4AA1-B64F-5065846628E6}"/>
-    <hyperlink ref="L51" r:id="rId16" xr:uid="{2B7C12F2-AE54-4717-92A8-5A964779F733}"/>
+    <hyperlink ref="Y51" r:id="rId15" xr:uid="{C7AC80E0-A565-4AA1-B64F-5065846628E6}"/>
+    <hyperlink ref="Z51" r:id="rId16" xr:uid="{2B7C12F2-AE54-4717-92A8-5A964779F733}"/>
     <hyperlink ref="K52" r:id="rId17" xr:uid="{82C1D026-D594-4340-91DB-0A543F309F41}"/>
     <hyperlink ref="L52" r:id="rId18" xr:uid="{8A286EF2-18A8-42BB-9203-A9DE5BB39F40}"/>
     <hyperlink ref="K53" r:id="rId19" xr:uid="{4CA10A27-1080-4F68-9587-66BBA5CAE63E}"/>
     <hyperlink ref="L53" r:id="rId20" xr:uid="{A7070418-5CD6-488A-92A3-89F447CE3AD8}"/>
-    <hyperlink ref="L54" r:id="rId21" xr:uid="{36E0B0F2-161D-46F9-9302-3654DCB96EB3}"/>
-    <hyperlink ref="K54" r:id="rId22" xr:uid="{5FE1B1A9-F8A2-41C9-A5A9-374968ADF6D1}"/>
+    <hyperlink ref="Z54" r:id="rId21" xr:uid="{36E0B0F2-161D-46F9-9302-3654DCB96EB3}"/>
+    <hyperlink ref="Y54" r:id="rId22" xr:uid="{5FE1B1A9-F8A2-41C9-A5A9-374968ADF6D1}"/>
     <hyperlink ref="K55" r:id="rId23" xr:uid="{0AF3FC0D-75BB-481C-BCE1-AE34E36F02A0}"/>
     <hyperlink ref="L55" r:id="rId24" xr:uid="{62C8AC82-6D3F-4E0E-804A-D893036A98E4}"/>
     <hyperlink ref="K56" r:id="rId25" xr:uid="{5DB1C384-72AC-4CAE-AE0F-B77FB17FC932}"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E8AEE-EE4A-4D66-AA9A-DC3ACEB3B967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8D5D9C-3B5F-4FCC-B089-D15DF6005320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1670,11 +1671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>28</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>29</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>30</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>31</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>32</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>33</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>34</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>35</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>36</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>37</v>
       </c>
@@ -2840,38 +2841,35 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="300" x14ac:dyDescent="0.25">
-      <c r="O43" s="22">
-        <v>42</v>
-      </c>
-      <c r="P43" s="3" t="s">
+    <row r="43" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z43" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>131</v>
@@ -2883,21 +2881,22 @@
         <v>156</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>248</v>
+        <v>279</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>131</v>
@@ -2909,22 +2908,21 @@
         <v>156</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>249</v>
+        <v>100</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="M45" s="16"/>
-    </row>
-    <row r="46" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>131</v>
@@ -2936,21 +2934,21 @@
         <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>131</v>
@@ -2962,21 +2960,21 @@
         <v>156</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>131</v>
@@ -2988,21 +2986,21 @@
         <v>156</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>131</v>
@@ -3014,21 +3012,21 @@
         <v>156</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>131</v>
@@ -3037,53 +3035,50 @@
         <v>156</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="285" x14ac:dyDescent="0.25">
-      <c r="O51" s="22">
-        <v>50</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="U51" s="3"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>131</v>
@@ -3092,24 +3087,24 @@
         <v>156</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>131</v>
@@ -3118,99 +3113,18 @@
         <v>156</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="300" x14ac:dyDescent="0.25">
-      <c r="O54" s="22">
-        <v>53</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K56" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="L56" s="21" t="s">
+      <c r="L53" s="21" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3221,39 +3135,161 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K44" r:id="rId1" xr:uid="{00179BB4-F4B6-450B-8700-3A633019C347}"/>
-    <hyperlink ref="L44" r:id="rId2" xr:uid="{6B308D80-AE4A-4D76-9058-734C0311A182}"/>
-    <hyperlink ref="K45" r:id="rId3" xr:uid="{442562F3-4693-40CF-8905-3141C74889A9}"/>
-    <hyperlink ref="L45" r:id="rId4" xr:uid="{DDC2839A-218D-4494-87E8-310AD0E7EA16}"/>
-    <hyperlink ref="L46" r:id="rId5" xr:uid="{AD2EB313-7A19-4EA6-A7AE-F61B7ECCD3E3}"/>
-    <hyperlink ref="K46" r:id="rId6" xr:uid="{7EB4FDBE-87A1-4CE8-9854-BE4199352F3B}"/>
-    <hyperlink ref="K47" r:id="rId7" xr:uid="{0026A6D0-089A-4C59-9844-3BDDD23923FF}"/>
-    <hyperlink ref="L47" r:id="rId8" xr:uid="{4E5C00FC-0A8F-462D-AB7B-B842B3A5F450}"/>
-    <hyperlink ref="K48" r:id="rId9" xr:uid="{D3EAE037-C2D9-4928-B263-58F197E66124}"/>
-    <hyperlink ref="L48" r:id="rId10" xr:uid="{0F4BE626-5F5F-4C14-AF4C-4D2BEDDBACBE}"/>
-    <hyperlink ref="K49" r:id="rId11" xr:uid="{20CE7812-64F2-4F9E-A4AD-D818C0EB89DE}"/>
-    <hyperlink ref="L49" r:id="rId12" xr:uid="{7461CCE5-E819-4FEC-963F-3BE751418966}"/>
-    <hyperlink ref="K50" r:id="rId13" xr:uid="{086308C8-9C3C-40E8-AC15-0082A16A31BC}"/>
-    <hyperlink ref="L50" r:id="rId14" xr:uid="{8C80E13B-4EDD-4899-9657-C6AFCDF95BD9}"/>
-    <hyperlink ref="Y51" r:id="rId15" xr:uid="{C7AC80E0-A565-4AA1-B64F-5065846628E6}"/>
-    <hyperlink ref="Z51" r:id="rId16" xr:uid="{2B7C12F2-AE54-4717-92A8-5A964779F733}"/>
-    <hyperlink ref="K52" r:id="rId17" xr:uid="{82C1D026-D594-4340-91DB-0A543F309F41}"/>
-    <hyperlink ref="L52" r:id="rId18" xr:uid="{8A286EF2-18A8-42BB-9203-A9DE5BB39F40}"/>
-    <hyperlink ref="K53" r:id="rId19" xr:uid="{4CA10A27-1080-4F68-9587-66BBA5CAE63E}"/>
-    <hyperlink ref="L53" r:id="rId20" xr:uid="{A7070418-5CD6-488A-92A3-89F447CE3AD8}"/>
-    <hyperlink ref="Z54" r:id="rId21" xr:uid="{36E0B0F2-161D-46F9-9302-3654DCB96EB3}"/>
-    <hyperlink ref="Y54" r:id="rId22" xr:uid="{5FE1B1A9-F8A2-41C9-A5A9-374968ADF6D1}"/>
-    <hyperlink ref="K55" r:id="rId23" xr:uid="{0AF3FC0D-75BB-481C-BCE1-AE34E36F02A0}"/>
-    <hyperlink ref="L55" r:id="rId24" xr:uid="{62C8AC82-6D3F-4E0E-804A-D893036A98E4}"/>
-    <hyperlink ref="K56" r:id="rId25" xr:uid="{5DB1C384-72AC-4CAE-AE0F-B77FB17FC932}"/>
-    <hyperlink ref="L56" r:id="rId26" xr:uid="{1EF802B8-2527-4BFF-810B-004E3CE1E292}"/>
+    <hyperlink ref="K43" r:id="rId1" xr:uid="{00179BB4-F4B6-450B-8700-3A633019C347}"/>
+    <hyperlink ref="L43" r:id="rId2" xr:uid="{6B308D80-AE4A-4D76-9058-734C0311A182}"/>
+    <hyperlink ref="K44" r:id="rId3" xr:uid="{442562F3-4693-40CF-8905-3141C74889A9}"/>
+    <hyperlink ref="L44" r:id="rId4" xr:uid="{DDC2839A-218D-4494-87E8-310AD0E7EA16}"/>
+    <hyperlink ref="L45" r:id="rId5" xr:uid="{AD2EB313-7A19-4EA6-A7AE-F61B7ECCD3E3}"/>
+    <hyperlink ref="K45" r:id="rId6" xr:uid="{7EB4FDBE-87A1-4CE8-9854-BE4199352F3B}"/>
+    <hyperlink ref="K46" r:id="rId7" xr:uid="{0026A6D0-089A-4C59-9844-3BDDD23923FF}"/>
+    <hyperlink ref="L46" r:id="rId8" xr:uid="{4E5C00FC-0A8F-462D-AB7B-B842B3A5F450}"/>
+    <hyperlink ref="K47" r:id="rId9" xr:uid="{D3EAE037-C2D9-4928-B263-58F197E66124}"/>
+    <hyperlink ref="L47" r:id="rId10" xr:uid="{0F4BE626-5F5F-4C14-AF4C-4D2BEDDBACBE}"/>
+    <hyperlink ref="K48" r:id="rId11" xr:uid="{20CE7812-64F2-4F9E-A4AD-D818C0EB89DE}"/>
+    <hyperlink ref="L48" r:id="rId12" xr:uid="{7461CCE5-E819-4FEC-963F-3BE751418966}"/>
+    <hyperlink ref="K49" r:id="rId13" xr:uid="{086308C8-9C3C-40E8-AC15-0082A16A31BC}"/>
+    <hyperlink ref="L49" r:id="rId14" xr:uid="{8C80E13B-4EDD-4899-9657-C6AFCDF95BD9}"/>
+    <hyperlink ref="K50" r:id="rId15" xr:uid="{82C1D026-D594-4340-91DB-0A543F309F41}"/>
+    <hyperlink ref="L50" r:id="rId16" xr:uid="{8A286EF2-18A8-42BB-9203-A9DE5BB39F40}"/>
+    <hyperlink ref="K51" r:id="rId17" xr:uid="{4CA10A27-1080-4F68-9587-66BBA5CAE63E}"/>
+    <hyperlink ref="L51" r:id="rId18" xr:uid="{A7070418-5CD6-488A-92A3-89F447CE3AD8}"/>
+    <hyperlink ref="K52" r:id="rId19" xr:uid="{0AF3FC0D-75BB-481C-BCE1-AE34E36F02A0}"/>
+    <hyperlink ref="L52" r:id="rId20" xr:uid="{62C8AC82-6D3F-4E0E-804A-D893036A98E4}"/>
+    <hyperlink ref="K53" r:id="rId21" xr:uid="{5DB1C384-72AC-4CAE-AE0F-B77FB17FC932}"/>
+    <hyperlink ref="L53" r:id="rId22" xr:uid="{1EF802B8-2527-4BFF-810B-004E3CE1E292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A983642E-70B4-4C6B-A625-9FB286629971}">
+  <dimension ref="A1:M54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K51" r:id="rId1" xr:uid="{4E71FE92-9923-461A-AABD-15029C4B93EA}"/>
+    <hyperlink ref="L51" r:id="rId2" xr:uid="{D8BF2E62-760B-4DDD-97AE-819E8E637D14}"/>
+    <hyperlink ref="L54" r:id="rId3" xr:uid="{FF836D08-4B5F-42D9-B3A6-9820BA99E884}"/>
+    <hyperlink ref="K54" r:id="rId4" xr:uid="{E1605706-CD81-472A-A202-01D72686048F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A156160B-084E-41FA-9892-537A2954D113}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -3448,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8058E62C-DA12-48F4-83A5-594A8E5362D7}">
   <dimension ref="A1:T46"/>
   <sheetViews>
@@ -3925,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
   <dimension ref="A2:O10"/>
   <sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8D5D9C-3B5F-4FCC-B089-D15DF6005320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B589-03A2-4FD3-AA14-7F5FFF8DFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1673,9 +1673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,10 +3164,906 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A156160B-084E-41FA-9892-537A2954D113}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8058E62C-DA12-48F4-83A5-594A8E5362D7}">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;"""},"</f>
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://businessmirror.com.ph/2021/01/17/dost-mimaropa-cest-shore-up-romblon-areas/"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T33" si="0">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;"""},"</f>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://businessmirror.com.ph/2021/06/27/coral-restoration-in-marinduque-begins/"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://www.msn.com/en-ph/news/other/dost-to-conduct-luzon-wide-virtual-scientific-meeting/ar-BB1g4GEr"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST-Mimaropa regional invention contest extended to June 27", url: "https://www.manilatimes.net/2021/05/17/public-square/dost-mimaropa-regional-invention-contest-extended-to-june-27/873451/"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://www.manilatimes.net/2021/06/20/public-square/dost-program-extends-help-to-shrimp-farmers/1803931"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://www.manilatimes.net/2021/07/16/public-square/coral-restoration-in-marinduque-improves-productivity-of-marine-resources/1807191"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered water filtration system comes to remote Palawan island", url: "https://newsbytes.ph/2021/02/11/solar-powered-water-filtration-system-comes-to-remote-palawan-island/"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart aquaculture in MIMAROPA rises: Fostering food security through S&amp;T solutions", url: "http://www.diaryongtagalog.net/agham/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thephilippinepost.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions//"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Coral Restoration In Marinduque Seen To Improve Productivity Of Marine Resources", url: "http://theluzondaily.com/coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources/"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://themindanaolife.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>315</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thevisayasjournal.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered Water Pump System provides accessible water for Sibuyao", url: "https://www.romblonnews.net/index.php/regional/6130-solar-powered-water-pump-system-provides-accessible-water-for-sibuyao"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes Community Empowerment in Yook, Marinduque", url: "https://romblonnews.net/index.php/features/6150-dost-mimaropa-promotes-community-empowerment-in-yook-marinduque"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>318</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa, naglunsad ng Virtual Tour", url: "https://romblonnews.net/index.php/regional/6331-dost-mimaropa-naglunsad-ng-virtual-tour?fbclid=IwAR2y8xXN_58Bh8d_FKL3-5XLM_J_Ev4rEx8fTIlXvOXUgsESyggb-2OU9nQ"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa supports call to end Gender-Based Violence", url: "https://romblonnews.net/index.php/regional/6379-dost-mimaropa-supports-call-to-end-gender-based-violence"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes basic research, looks at local issues in the region", url: "https://romblonnews.net/index.php/regional/6362-dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST Shores up water security, livelihood, nutrition, and environment protection in Concepcion", url: "https://romblonnews.net/index.php/local/24-concepcion/6413-dost-shores-up-water-security-livelihood-nutrition-and-environment-protection-in-concepcion"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST Turns the Tide in Dumaran Island", url: "https://romblonnews.net/index.php/features/6463-dost-turns-the-tide-in-dumaran-island"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Programang tutulong sa mga negosyanteng OFW, inilunsad ng DOST-Mimaropa", url: "https://romblonnews.net/index.php/regional/6482-programang-tutulong-sa-mga-negosyanteng-ofw-inilunsad-ng-dost-mimaropa"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA promotes community empowerment in Yook, Marinduque", url: "https://palawan-news.com/dost-mimaropa-promotes-community-empowerment-in-yook-marinduque/"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA promotes basic research, looks at local issues in the region", url: "https://palawan-news.com/dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region/"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST shores up water security in Concepcion, Romblon", url: "https://palawan-news.com/dost-shores-up-water-security-in-concepcion-romblon/"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "MISSION SUCCESS: DOST turns the tide in Dumaran Island", url: "https://palawan-news.com/mission-success-dost-turns-the-tide-in-dumaran-island/"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-MIMAROPA assistance program, inilunsad para sa mga OFW", url: "https://palawan-news.com/dost-mimaropa-assistance-program-inilunsad-para-sa-mga-ofw/"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "Solar-powered water pump system provides accessible water in Sibuyao", url: "https://marinduquenews.com/2020/09/30/solar-powered-water-pump-system-provides-accessible-water-in-sibuyao/"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa promotes community empowerment in Buenavista ", url: "https://marinduquenews.com/2020/09/30/dost-mimaropa-promotes-community-empowerment-in-buenavista/"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST holds technology forums, research caravans", url: "https://palawandailynews.com/provincial-news/dost-hold-technology-forums-research-caravans/"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
+        <v>332</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST shores up water security in Romblon", url: "https://marinduquenews.com/2021/01/22/dost-shores-up-water-security-in-romblon/ "},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
+        <v>333</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "DOST-Mimaropa, may alok na programa sa mga OFW", url: "https://marinduquenews.com/2021/03/22/dost-mimaropa-may-alok-na-programa-sa-mga-ofw/"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "SMART AQUACULTURE IN MIMAROPA RISES: FOSTERING FOOD SECURITY THROUGH S&amp;T SOLUTIONS", url: "https://www.dost.gov.ph/knowledge-resources/news/72-2021-news/2185-smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-s-t-solutions.html"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="0"/>
+        <v>{title: "CORAL RESTORATION IN MARINDUQUE SEEN TO IMPROVE PRODUCTIVITY OF MARINE RESOURCES", url: "https://stii.dost.gov.ph/1122-coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{598382C0-1520-4285-B446-38998151C486}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DD86822B-B262-4541-88D1-F9D4F073D63F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
+  <dimension ref="A2:O10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="50.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>"https://drive.google.com/uc?export=view&amp;id=" &amp; E2</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(D2,SEARCH("/d/",D2)+3,33)</f>
+        <v>1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;""", thumbnail: """ &amp; C2 &amp;"""},"</f>
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C10" si="0">"https://drive.google.com/uc?export=view&amp;id=" &amp; E3</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="1">MID(D3,SEARCH("/d/",D3)+3,33)</f>
+        <v>1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O10" si="2">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;""", thumbnail: """ &amp; C3 &amp;"""},"</f>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST-MIMAROPA regional invention contest extended to June 27", url: "https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{39A0F303-FD74-469F-86BD-86E77B88E2EC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{383FAEAD-96A6-4D82-8208-49006BF5FCB6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B7711E9-4D5D-417C-AA29-0076527169DC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E013696A-968E-46D3-8AF0-55586923E666}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{D77F9015-8AC9-487F-9D4F-DA5C214E4C43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A983642E-70B4-4C6B-A625-9FB286629971}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -3287,900 +4183,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A156160B-084E-41FA-9892-537A2954D113}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8058E62C-DA12-48F4-83A5-594A8E5362D7}">
-  <dimension ref="A1:T46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="T2" t="str">
-        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;"""},"</f>
-        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://businessmirror.com.ph/2021/01/17/dost-mimaropa-cest-shore-up-romblon-areas/"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T33" si="0">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;"""},"</f>
-        <v>{title: "Coral restoration in Marinduque begins", url: "https://businessmirror.com.ph/2021/06/27/coral-restoration-in-marinduque-begins/"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://www.msn.com/en-ph/news/other/dost-to-conduct-luzon-wide-virtual-scientific-meeting/ar-BB1g4GEr"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DoST-Mimaropa regional invention contest extended to June 27", url: "https://www.manilatimes.net/2021/05/17/public-square/dost-mimaropa-regional-invention-contest-extended-to-june-27/873451/"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" t="s">
-        <v>304</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DoST program extends help to shrimp farmers", url: "https://www.manilatimes.net/2021/06/20/public-square/dost-program-extends-help-to-shrimp-farmers/1803931"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
-        <v>305</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://www.manilatimes.net/2021/07/16/public-square/coral-restoration-in-marinduque-improves-productivity-of-marine-resources/1807191"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Solar-powered water filtration system comes to remote Palawan island", url: "https://newsbytes.ph/2021/02/11/solar-powered-water-filtration-system-comes-to-remote-palawan-island/"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>311</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Smart aquaculture in MIMAROPA rises: Fostering food security through S&amp;T solutions", url: "http://www.diaryongtagalog.net/agham/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" t="s">
-        <v>312</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thephilippinepost.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions//"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Coral Restoration In Marinduque Seen To Improve Productivity Of Marine Resources", url: "http://theluzondaily.com/coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources/"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" t="s">
-        <v>314</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://themindanaolife.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" t="s">
-        <v>315</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Smart Aquaculture In MIMAROPA Rises: Fostering Food Security Through S&amp;T Solutions", url: "http://thevisayasjournal.com/smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-st-solutions/"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" t="s">
-        <v>316</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Solar-powered Water Pump System provides accessible water for Sibuyao", url: "https://www.romblonnews.net/index.php/regional/6130-solar-powered-water-pump-system-provides-accessible-water-for-sibuyao"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B15" t="s">
-        <v>317</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa promotes Community Empowerment in Yook, Marinduque", url: "https://romblonnews.net/index.php/features/6150-dost-mimaropa-promotes-community-empowerment-in-yook-marinduque"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" t="s">
-        <v>318</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa, naglunsad ng Virtual Tour", url: "https://romblonnews.net/index.php/regional/6331-dost-mimaropa-naglunsad-ng-virtual-tour?fbclid=IwAR2y8xXN_58Bh8d_FKL3-5XLM_J_Ev4rEx8fTIlXvOXUgsESyggb-2OU9nQ"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>356</v>
-      </c>
-      <c r="B17" t="s">
-        <v>319</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa supports call to end Gender-Based Violence", url: "https://romblonnews.net/index.php/regional/6379-dost-mimaropa-supports-call-to-end-gender-based-violence"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>320</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa promotes basic research, looks at local issues in the region", url: "https://romblonnews.net/index.php/regional/6362-dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" t="s">
-        <v>321</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST Shores up water security, livelihood, nutrition, and environment protection in Concepcion", url: "https://romblonnews.net/index.php/local/24-concepcion/6413-dost-shores-up-water-security-livelihood-nutrition-and-environment-protection-in-concepcion"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" t="s">
-        <v>322</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST Turns the Tide in Dumaran Island", url: "https://romblonnews.net/index.php/features/6463-dost-turns-the-tide-in-dumaran-island"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" t="s">
-        <v>323</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Programang tutulong sa mga negosyanteng OFW, inilunsad ng DOST-Mimaropa", url: "https://romblonnews.net/index.php/regional/6482-programang-tutulong-sa-mga-negosyanteng-ofw-inilunsad-ng-dost-mimaropa"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" t="s">
-        <v>324</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-MIMAROPA promotes community empowerment in Yook, Marinduque", url: "https://palawan-news.com/dost-mimaropa-promotes-community-empowerment-in-yook-marinduque/"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B23" t="s">
-        <v>325</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-MIMAROPA promotes basic research, looks at local issues in the region", url: "https://palawan-news.com/dost-mimaropa-promotes-basic-research-looks-at-local-issues-in-the-region/"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" t="s">
-        <v>326</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST shores up water security in Concepcion, Romblon", url: "https://palawan-news.com/dost-shores-up-water-security-in-concepcion-romblon/"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" t="s">
-        <v>327</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "MISSION SUCCESS: DOST turns the tide in Dumaran Island", url: "https://palawan-news.com/mission-success-dost-turns-the-tide-in-dumaran-island/"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" t="s">
-        <v>328</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-MIMAROPA assistance program, inilunsad para sa mga OFW", url: "https://palawan-news.com/dost-mimaropa-assistance-program-inilunsad-para-sa-mga-ofw/"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>366</v>
-      </c>
-      <c r="B27" t="s">
-        <v>329</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "Solar-powered water pump system provides accessible water in Sibuyao", url: "https://marinduquenews.com/2020/09/30/solar-powered-water-pump-system-provides-accessible-water-in-sibuyao/"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" t="s">
-        <v>330</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa promotes community empowerment in Buenavista ", url: "https://marinduquenews.com/2020/09/30/dost-mimaropa-promotes-community-empowerment-in-buenavista/"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B29" t="s">
-        <v>331</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST holds technology forums, research caravans", url: "https://palawandailynews.com/provincial-news/dost-hold-technology-forums-research-caravans/"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B30" t="s">
-        <v>332</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST shores up water security in Romblon", url: "https://marinduquenews.com/2021/01/22/dost-shores-up-water-security-in-romblon/ "},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31" t="s">
-        <v>333</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "DOST-Mimaropa, may alok na programa sa mga OFW", url: "https://marinduquenews.com/2021/03/22/dost-mimaropa-may-alok-na-programa-sa-mga-ofw/"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" t="s">
-        <v>334</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "SMART AQUACULTURE IN MIMAROPA RISES: FOSTERING FOOD SECURITY THROUGH S&amp;T SOLUTIONS", url: "https://www.dost.gov.ph/knowledge-resources/news/72-2021-news/2185-smart-aquaculture-in-mimaropa-rises-fostering-food-security-through-s-t-solutions.html"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>372</v>
-      </c>
-      <c r="B33" t="s">
-        <v>335</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="0"/>
-        <v>{title: "CORAL RESTORATION IN MARINDUQUE SEEN TO IMPROVE PRODUCTIVITY OF MARINE RESOURCES", url: "https://stii.dost.gov.ph/1122-coral-restoration-in-marinduque-seen-to-improve-productivity-of-marine-resources"},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{598382C0-1520-4285-B446-38998151C486}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DD86822B-B262-4541-88D1-F9D4F073D63F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
-  <dimension ref="A2:O10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="25.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="50.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>"https://drive.google.com/uc?export=view&amp;id=" &amp; E2</f>
-        <v>https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
-      </c>
-      <c r="D2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" t="str">
-        <f>MID(D2,SEARCH("/d/",D2)+3,33)</f>
-        <v>1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;""", thumbnail: """ &amp; C2 &amp;"""},"</f>
-        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C10" si="0">"https://drive.google.com/uc?export=view&amp;id=" &amp; E3</f>
-        <v>https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
-      </c>
-      <c r="D3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E10" si="1">MID(D3,SEARCH("/d/",D3)+3,33)</f>
-        <v>1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O10" si="2">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;""", thumbnail: """ &amp; C3 &amp;"""},"</f>
-        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O4" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>{title: "Coral restoration in Marinduque improves productivity of marine resources", url: "https://drive.google.com/file/d/1Y3N3ohnv7oEiIW54UPhUc80sKVXoIoyc/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
-      </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>{title: "DoST-MIMAROPA regional invention contest extended to June 27", url: "https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
-      </c>
-      <c r="D8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O10" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{39A0F303-FD74-469F-86BD-86E77B88E2EC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{383FAEAD-96A6-4D82-8208-49006BF5FCB6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B7711E9-4D5D-417C-AA29-0076527169DC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E013696A-968E-46D3-8AF0-55586923E666}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{D77F9015-8AC9-487F-9D4F-DA5C214E4C43}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B589-03A2-4FD3-AA14-7F5FFF8DFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC62CA0-AE5C-46FF-89B2-B0F77A7E3CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="394">
   <si>
     <t>category</t>
   </si>
@@ -1217,6 +1217,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Dfj8_BRyGa4/hqdefault.jpg?sqp=-oaymwEcCPYBEIoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLACpPY5XRKM1lRld7VwAnSdtsDHsg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dfj8_BRyGa4</t>
   </si>
 </sst>
 </file>
@@ -1671,11 +1677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,6 +3132,32 @@
       </c>
       <c r="L53" s="21" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3157,9 +3189,11 @@
     <hyperlink ref="L52" r:id="rId20" xr:uid="{62C8AC82-6D3F-4E0E-804A-D893036A98E4}"/>
     <hyperlink ref="K53" r:id="rId21" xr:uid="{5DB1C384-72AC-4CAE-AE0F-B77FB17FC932}"/>
     <hyperlink ref="L53" r:id="rId22" xr:uid="{1EF802B8-2527-4BFF-810B-004E3CE1E292}"/>
+    <hyperlink ref="K54" r:id="rId23" xr:uid="{E137207E-BD4E-4DB2-BE09-507152DD6451}"/>
+    <hyperlink ref="L54" r:id="rId24" xr:uid="{BE3488CB-D555-4314-89DE-C12509A48005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -3167,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A156160B-084E-41FA-9892-537A2954D113}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC62CA0-AE5C-46FF-89B2-B0F77A7E3CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571654A-14AB-44D2-AC9D-466981B08151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="406">
   <si>
     <t>category</t>
   </si>
@@ -1223,6 +1223,42 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Dfj8_BRyGa4</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/kZjMJ9utbOs/hq720.jpg?sqp=-oaymwEcCOgCEMoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLBXpiugWCEWGArg9CMWVt8cnThIkA</t>
+  </si>
+  <si>
+    <t>Sitio Marna - Where Hope Shines Bright in Spite of a Dark COVID-19 Reality</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kZjMJ9utbOs&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Quarantine Stories from Cebu; Rosita, the Calamansi Vendor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZOyV4UycdWU</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZOyV4UycdWU/hq720.jpg?sqp=-oaymwEcCOgCEMoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLAkKoJv2AdGMgmqLRcgHXSo0G2vHg</t>
+  </si>
+  <si>
+    <t>Quarantine Stories from Cebu; The 24/7 Vulcanising shop</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/K39B5eE2QZ8/hq720.jpg?sqp=-oaymwEcCOgCEMoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLB0XHUntYeDvynvfhPB8op_YPRkSw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K39B5eE2QZ8</t>
+  </si>
+  <si>
+    <t>#3 Girls in lockdown stories, Dan - Manila, The Philippines</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/oXy5vWOgn2M/hq720.jpg?sqp=-oaymwEcCOgCEMoBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLD_EAZyqierY3OcUhcmoWxVceHL1g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oXy5vWOgn2M</t>
   </si>
 </sst>
 </file>
@@ -1677,11 +1713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,6 +3194,98 @@
       </c>
       <c r="L54" s="11" t="s">
         <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -3191,9 +3319,17 @@
     <hyperlink ref="L53" r:id="rId22" xr:uid="{1EF802B8-2527-4BFF-810B-004E3CE1E292}"/>
     <hyperlink ref="K54" r:id="rId23" xr:uid="{E137207E-BD4E-4DB2-BE09-507152DD6451}"/>
     <hyperlink ref="L54" r:id="rId24" xr:uid="{BE3488CB-D555-4314-89DE-C12509A48005}"/>
+    <hyperlink ref="K55" r:id="rId25" xr:uid="{B45D69E2-C4A7-4087-8D44-2882B94EC678}"/>
+    <hyperlink ref="L55" r:id="rId26" xr:uid="{9738C7B2-54D0-4819-AD49-FAA886924EFA}"/>
+    <hyperlink ref="L56" r:id="rId27" xr:uid="{AAEC88D1-E1DF-4FC6-AF1E-7A5760A29ABE}"/>
+    <hyperlink ref="K56" r:id="rId28" xr:uid="{8E4942FF-5829-4B39-BDCA-F81C770C79BF}"/>
+    <hyperlink ref="K57" r:id="rId29" xr:uid="{66F522F2-484C-446D-BC13-897EA062B7F9}"/>
+    <hyperlink ref="L57" r:id="rId30" xr:uid="{DB530698-77D8-4040-BECA-55B0D4291426}"/>
+    <hyperlink ref="K58" r:id="rId31" xr:uid="{694E709C-B702-46CE-9852-7896723EC913}"/>
+    <hyperlink ref="L58" r:id="rId32" xr:uid="{58F2D0E5-059F-4680-97E4-2A467AE99EEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\charlottepizarras.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte Pizarras\Documents\charlottepizarras.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571654A-14AB-44D2-AC9D-466981B08151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE139F74-3BE9-4237-A342-B2C5D35F74AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="402">
   <si>
     <t>category</t>
   </si>
@@ -1162,12 +1162,6 @@
     <t>CORAL RESTORATION IN MARINDUQUE SEEN TO IMPROVE PRODUCTIVITY OF MARINE RESOURCES</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Safe water for Palawan island assured</t>
   </si>
   <si>
@@ -1183,13 +1177,7 @@
     <t>MinSU leads in calamansi research</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1J62r0r_x9MtJ09snT_QO9F2KeeXVZe2B/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1v49JP62CN1vCMNpk-kgmR1cz2oUxUNEn/view?usp=sharing</t>
@@ -1363,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,9 +1380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,13 +1389,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1419,16 +1404,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1715,14 +1694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
@@ -1731,7 +1710,7 @@
     <col min="8" max="8" width="25.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="11" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="50.7109375" style="6" customWidth="1"/>
@@ -1769,7 +1748,7 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1783,7 +1762,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1804,17 +1783,17 @@
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="10"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1838,15 +1817,15 @@
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1867,15 +1846,15 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1899,15 +1878,15 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1925,15 +1904,15 @@
       <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1951,15 +1930,15 @@
       <c r="I7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1977,15 +1956,15 @@
       <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2003,15 +1982,15 @@
       <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2032,15 +2011,15 @@
       <c r="I10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2058,15 +2037,15 @@
       <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2084,15 +2063,15 @@
       <c r="I12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2113,15 +2092,15 @@
       <c r="I13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2139,15 +2118,15 @@
       <c r="I14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2165,15 +2144,15 @@
       <c r="I15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="18">
         <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2191,15 +2170,15 @@
       <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="18">
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2214,15 +2193,15 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="18">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2240,15 +2219,15 @@
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="18" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="18">
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2266,15 +2245,15 @@
       <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="18">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2292,15 +2271,15 @@
       <c r="I20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="18">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2321,15 +2300,15 @@
       <c r="J21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="18">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2350,15 +2329,15 @@
       <c r="J22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2376,15 +2355,15 @@
       <c r="I23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2405,15 +2384,15 @@
       <c r="I24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="18">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2431,15 +2410,15 @@
       <c r="I25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2457,15 +2436,15 @@
       <c r="I26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="18">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2483,15 +2462,15 @@
       <c r="I27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="18">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2512,15 +2491,15 @@
       <c r="I28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="18">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2538,15 +2517,15 @@
       <c r="I29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="18">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2564,15 +2543,15 @@
       <c r="I30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="18">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2590,15 +2569,15 @@
       <c r="I31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="18">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2616,15 +2595,15 @@
       <c r="I32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="18">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2642,15 +2621,15 @@
       <c r="I33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="18" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="18">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2668,15 +2647,15 @@
       <c r="I34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="18" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="18">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2694,15 +2673,15 @@
       <c r="I35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="18">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2720,15 +2699,15 @@
       <c r="I36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="18">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2746,15 +2725,15 @@
       <c r="I37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="18">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2772,15 +2751,15 @@
       <c r="I38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="18" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="18">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2798,15 +2777,15 @@
       <c r="I39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="18" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="18">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2824,15 +2803,15 @@
       <c r="I40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="18">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2850,15 +2829,15 @@
       <c r="I41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="18" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="18">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2876,15 +2855,15 @@
       <c r="I42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="18">
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2902,15 +2881,15 @@
       <c r="I43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="K43" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="18">
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2928,16 +2907,16 @@
       <c r="I44" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M44" s="16"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="18">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2955,15 +2934,15 @@
       <c r="I45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="18">
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2981,15 +2960,15 @@
       <c r="I46" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="18">
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3007,15 +2986,15 @@
       <c r="I47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="K47" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="18">
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3033,15 +3012,15 @@
       <c r="I48" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="K48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="18">
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3059,15 +3038,15 @@
       <c r="I49" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K49" s="17" t="s">
+      <c r="K49" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="A50" s="18">
         <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3085,15 +3064,15 @@
       <c r="I50" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="18">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3111,15 +3090,15 @@
       <c r="I51" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="A52" s="18">
         <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3137,15 +3116,15 @@
       <c r="I52" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="K52" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="18">
         <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3163,15 +3142,15 @@
       <c r="I53" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K53" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="L53" s="19" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="18">
         <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -3189,15 +3168,15 @@
       <c r="I54" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>393</v>
+      <c r="K54" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="18">
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3210,17 +3189,17 @@
         <v>156</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="18">
         <v>58</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3233,17 +3212,17 @@
         <v>156</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="18">
         <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3256,17 +3235,17 @@
         <v>156</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="18">
         <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -3279,13 +3258,13 @@
         <v>156</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>405</v>
+        <v>399</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3529,7 @@
       <c r="A2" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>299</v>
       </c>
       <c r="T2" t="str">
@@ -3562,7 +3541,7 @@
       <c r="A3" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>300</v>
       </c>
       <c r="T3" t="str">
@@ -4009,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1D2F8-A187-4E57-89FE-37F882500716}">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,15 +4002,15 @@
       <c r="A2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>373</v>
+      <c r="B2" s="17" t="s">
+        <v>382</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>"https://drive.google.com/uc?export=view&amp;id=" &amp; E2</f>
         <v>https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E2" t="str">
         <f>MID(D2,SEARCH("/d/",D2)+3,33)</f>
@@ -4039,22 +4018,22 @@
       </c>
       <c r="O2" s="4" t="str">
         <f>"{title: """&amp;A2&amp;""""&amp;", url: """&amp;B2&amp;""", thumbnail: """ &amp; C2 &amp;"""},"</f>
-        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1gDnAZMctL5p9RECrUUzC6m2p8q6YkVuP/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>{title: "DOST-Mimaropa, CEST shore up Romblon areas", url: "https://drive.google.com/file/d/1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1INqp-eRs3d5hS5_nlsU4zqYFQkoyYqRl"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>374</v>
+      <c r="B3" s="17" t="s">
+        <v>386</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C10" si="0">"https://drive.google.com/uc?export=view&amp;id=" &amp; E3</f>
         <v>https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E10" si="1">MID(D3,SEARCH("/d/",D3)+3,33)</f>
@@ -4062,15 +4041,15 @@
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O10" si="2">"{title: """&amp;A3&amp;""""&amp;", url: """&amp;B3&amp;""", thumbnail: """ &amp; C3 &amp;"""},"</f>
-        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1mnJHmzZ0uBsaE3URHMtPdt6kfnUEj4NM/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h"},</v>
+        <v>{title: "Coral restoration in Marinduque begins", url: "https://drive.google.com/file/d/1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1ay4jmlpKpMASeyNnI0_gMY_NBkzZqS9h"},</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>374</v>
       </c>
       <c r="C4" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4089,15 +4068,15 @@
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>377</v>
+      <c r="B5" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://drive.google.com/uc?export=view&amp;id=1FMba5lXIw4mekHcyYe9mArir-AFbdErM</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -4112,15 +4091,15 @@
       <c r="A6" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>380</v>
+      <c r="B6" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -4128,22 +4107,22 @@
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1AfMaBN70wepX_TwY9OOZ5Kw6r9RftlDK/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF"},</v>
+        <v>{title: "DoST program extends help to shrimp farmers", url: "https://drive.google.com/file/d/1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1RMDnqHs1VuGLF4VKchjJ6OtsgzYhUSkF"},</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://drive.google.com/uc?export=view&amp;id=1s4zN1CNVBrut_9hEN0yUwed6O1lpcOWz</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>391</v>
+      <c r="D7" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -4158,15 +4137,15 @@
       <c r="A8" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>382</v>
+      <c r="B8" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -4174,15 +4153,15 @@
       </c>
       <c r="O8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/17THWbERvifm5G_Vn6nU2pB6DasYEdI5W/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w"},</v>
+        <v>{title: "DoST to conduct Luzon-wide virtual scientific meeting", url: "https://drive.google.com/file/d/1a13flG1yKZbT8k2LKiXR16erlc_qFb2w/view?usp=sharing", thumbnail: "https://drive.google.com/uc?export=view&amp;id=1a13flG1yKZbT8k2LKiXR16erlc_qFb2w"},</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C9" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4199,10 +4178,10 @@
     </row>
     <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C10" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4224,6 +4203,8 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6B7711E9-4D5D-417C-AA29-0076527169DC}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E013696A-968E-46D3-8AF0-55586923E666}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{D77F9015-8AC9-487F-9D4F-DA5C214E4C43}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{E92F88F7-9E94-4EA7-896F-9DB7BF7702AE}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{93690D05-BE13-432E-8F6E-4D3491A293F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4234,7 +4215,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,7 +4239,7 @@
       <c r="M1" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4279,15 +4260,15 @@
         <v>276</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="285" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4308,15 +4289,15 @@
         <v>287</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="300" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4337,10 +4318,10 @@
         <v>290</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="17" t="s">
+      <c r="K54" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="10" t="s">
         <v>263</v>
       </c>
     </row>
